--- a/output.xlsx
+++ b/output.xlsx
@@ -49,19 +49,19 @@
     <t>Binance USD</t>
   </si>
   <si>
-    <t>386.65</t>
-  </si>
-  <si>
-    <t>129.96</t>
-  </si>
-  <si>
-    <t>36.37</t>
-  </si>
-  <si>
-    <t>32.56</t>
-  </si>
-  <si>
-    <t>19.38</t>
+    <t>387.05</t>
+  </si>
+  <si>
+    <t>129.53</t>
+  </si>
+  <si>
+    <t>36.28</t>
+  </si>
+  <si>
+    <t>32.53</t>
+  </si>
+  <si>
+    <t>19.19</t>
   </si>
   <si>
     <t>17.53</t>
@@ -85,40 +85,40 @@
     <t>4.23B</t>
   </si>
   <si>
-    <t>0.59%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>3.29%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>6.72%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>20,270.57</t>
-  </si>
-  <si>
-    <t>1,093.98</t>
-  </si>
-  <si>
-    <t>222.75</t>
-  </si>
-  <si>
-    <t>0.325628</t>
-  </si>
-  <si>
-    <t>37.01</t>
-  </si>
-  <si>
-    <t>0.999944</t>
+    <t>-0.26%</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>4.25%</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>20,291.50</t>
+  </si>
+  <si>
+    <t>1,090.41</t>
+  </si>
+  <si>
+    <t>222.18</t>
+  </si>
+  <si>
+    <t>0.325350</t>
+  </si>
+  <si>
+    <t>36.65</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
 </sst>
 </file>
